--- a/src/main/resources/template/excel/export/branchExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/branchExportTemplate.xlsx
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="J3")</t>
+          <t>jx:area(lastCell="I3")</t>
         </r>
       </text>
     </comment>
@@ -47,7 +47,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="J3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="I3")</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>机构资料</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>费用均摊年数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>联系人</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -123,10 +119,6 @@
   </si>
   <si>
     <t>${obj.areaSize}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.costAvgYear}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -278,6 +270,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -297,7 +357,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -576,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -588,13 +648,13 @@
     <col min="2" max="2" width="21.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
     <col min="4" max="4" width="26.5" style="3" customWidth="1"/>
-    <col min="5" max="7" width="19.75" customWidth="1"/>
-    <col min="8" max="9" width="20.75" style="3" customWidth="1"/>
-    <col min="10" max="10" width="25.125" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="5" max="6" width="19.75" customWidth="1"/>
+    <col min="7" max="8" width="20.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -606,9 +666,8 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -636,45 +695,39 @@
       <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
